--- a/sim4/sim4.xlsx
+++ b/sim4/sim4.xlsx
@@ -478,16 +478,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>18.7</v>
+        <v>15.4</v>
       </c>
       <c r="F2" t="n">
-        <v>-37.4</v>
+        <v>-30.8</v>
       </c>
       <c r="G2" t="n">
-        <v>-18.7</v>
+        <v>-15.4</v>
       </c>
     </row>
     <row r="3">
@@ -500,19 +500,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>41.38902771546203</v>
+        <v>22.76155223626285</v>
       </c>
       <c r="F3" t="n">
-        <v>-81.18796124018252</v>
+        <v>-44.21361513897383</v>
       </c>
       <c r="G3" t="n">
-        <v>-39.79893352472048</v>
+        <v>-21.45206290271098</v>
       </c>
     </row>
     <row r="4">
@@ -525,19 +525,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" t="n">
-        <v>66.87941577562091</v>
+        <v>42.06131870031807</v>
       </c>
       <c r="F4" t="n">
-        <v>-128.751904840667</v>
+        <v>-80.96214579600971</v>
       </c>
       <c r="G4" t="n">
-        <v>-61.87248906504607</v>
+        <v>-38.90082709569164</v>
       </c>
     </row>
     <row r="5">
@@ -556,13 +556,13 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>109.4095983269647</v>
+        <v>81.13693173577532</v>
       </c>
       <c r="F5" t="n">
-        <v>-208.4483063145701</v>
+        <v>-155.7406529153153</v>
       </c>
       <c r="G5" t="n">
-        <v>-99.03870798760545</v>
+        <v>-74.60372117953999</v>
       </c>
     </row>
     <row r="6">
@@ -571,23 +571,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jog</t>
+          <t>OFF</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>121.8550896331243</v>
+        <v>79.35377504080992</v>
       </c>
       <c r="F6" t="n">
-        <v>-224.7048465752906</v>
+        <v>-145.6964686556622</v>
       </c>
       <c r="G6" t="n">
-        <v>-102.8497569421663</v>
+        <v>-66.34269361485232</v>
       </c>
     </row>
     <row r="7">
@@ -600,19 +600,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7" t="n">
-        <v>136.7770647898567</v>
+        <v>107.3098070079097</v>
       </c>
       <c r="F7" t="n">
-        <v>-245.4129535416424</v>
+        <v>-195.7000641218122</v>
       </c>
       <c r="G7" t="n">
-        <v>-108.6358887517856</v>
+        <v>-88.39025711390248</v>
       </c>
     </row>
     <row r="8">
@@ -621,23 +621,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1000m_interval×5</t>
+          <t>2000m_interval×5</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>161.271097795788</v>
+        <v>149.951445695644</v>
       </c>
       <c r="F8" t="n">
-        <v>-284.5855322554463</v>
+        <v>-273.0787769570908</v>
       </c>
       <c r="G8" t="n">
-        <v>-123.3144344596583</v>
+        <v>-123.1273312614468</v>
       </c>
     </row>
     <row r="9">
@@ -646,23 +646,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jog</t>
+          <t>OFF</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>175.3268223149815</v>
+        <v>146.6559436524723</v>
       </c>
       <c r="F9" t="n">
-        <v>-301.4317532639108</v>
+        <v>-255.4671033072496</v>
       </c>
       <c r="G9" t="n">
-        <v>-126.1049309489293</v>
+        <v>-108.8111596547773</v>
       </c>
     </row>
     <row r="10">
@@ -675,19 +675,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D10" t="n">
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>182.4736423840953</v>
+        <v>159.9328672779307</v>
       </c>
       <c r="F10" t="n">
-        <v>-303.9915106887157</v>
+        <v>-271.9912595897259</v>
       </c>
       <c r="G10" t="n">
-        <v>-121.5178683046203</v>
+        <v>-112.0583923117952</v>
       </c>
     </row>
     <row r="11">
@@ -703,16 +703,16 @@
         <v>1.5</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E11" t="n">
-        <v>188.3633958772207</v>
+        <v>174.5680022598602</v>
       </c>
       <c r="F11" t="n">
-        <v>-304.1861816396072</v>
+        <v>-290.7497232137366</v>
       </c>
       <c r="G11" t="n">
-        <v>-115.8227857623865</v>
+        <v>-116.1817209538764</v>
       </c>
     </row>
     <row r="12">
@@ -731,13 +731,13 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>228.2237095067933</v>
+        <v>210.7314990140867</v>
       </c>
       <c r="F12" t="n">
-        <v>-372.568297673949</v>
+        <v>-351.9983969624601</v>
       </c>
       <c r="G12" t="n">
-        <v>-144.3445881671556</v>
+        <v>-141.2668979483734</v>
       </c>
     </row>
     <row r="13">
@@ -746,23 +746,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jog</t>
+          <t>OFF</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>246.3080079409251</v>
+        <v>206.1002259887428</v>
       </c>
       <c r="F13" t="n">
-        <v>-394.7402448753183</v>
+        <v>-329.2969590783136</v>
       </c>
       <c r="G13" t="n">
-        <v>-148.4322369343932</v>
+        <v>-123.1967330895708</v>
       </c>
     </row>
     <row r="14">
@@ -775,19 +775,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>268.9448654423433</v>
+        <v>210.3707350412356</v>
       </c>
       <c r="F14" t="n">
-        <v>-425.3822563539516</v>
+        <v>-325.6596053674332</v>
       </c>
       <c r="G14" t="n">
-        <v>-156.4373909116082</v>
+        <v>-115.2888703261976</v>
       </c>
     </row>
     <row r="15">
@@ -806,13 +806,13 @@
         <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>290.534229839905</v>
+        <v>230.747390571726</v>
       </c>
       <c r="F15" t="n">
-        <v>-452.948072127632</v>
+        <v>-354.6568355638739</v>
       </c>
       <c r="G15" t="n">
-        <v>-162.413842287727</v>
+        <v>-123.9094449921478</v>
       </c>
     </row>
     <row r="16">
@@ -821,23 +821,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jog</t>
+          <t>OFF</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>303.949122023125</v>
+        <v>225.6762257452855</v>
       </c>
       <c r="F16" t="n">
-        <v>-463.3360853320048</v>
+        <v>-331.7839469592139</v>
       </c>
       <c r="G16" t="n">
-        <v>-159.3869633088797</v>
+        <v>-106.1077212139284</v>
       </c>
     </row>
     <row r="17">
@@ -850,19 +850,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" t="n">
-        <v>318.1691934102291</v>
+        <v>250.4165105548873</v>
       </c>
       <c r="F17" t="n">
-        <v>-475.2541442452962</v>
+        <v>-369.7861999017044</v>
       </c>
       <c r="G17" t="n">
-        <v>-157.0849508350671</v>
+        <v>-119.3696893468171</v>
       </c>
     </row>
     <row r="18">
@@ -878,16 +878,16 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E18" t="n">
-        <v>322.1767484751807</v>
+        <v>263.6130749704612</v>
       </c>
       <c r="F18" t="n">
-        <v>-466.6035716066986</v>
+        <v>-383.3375729763425</v>
       </c>
       <c r="G18" t="n">
-        <v>-144.4268231315179</v>
+        <v>-119.7244980058813</v>
       </c>
     </row>
     <row r="19">
@@ -906,13 +906,13 @@
         <v>12</v>
       </c>
       <c r="E19" t="n">
-        <v>361.2962289914448</v>
+        <v>299.8196168071088</v>
       </c>
       <c r="F19" t="n">
-        <v>-528.9109004787672</v>
+        <v>-442.614977144436</v>
       </c>
       <c r="G19" t="n">
-        <v>-167.6146714873224</v>
+        <v>-142.7953603373272</v>
       </c>
     </row>
     <row r="20">
@@ -921,23 +921,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>jog</t>
+          <t>OFF</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>363.2559756960669</v>
+        <v>293.2304428569208</v>
       </c>
       <c r="F20" t="n">
-        <v>-514.5998418572495</v>
+        <v>-414.0694027982297</v>
       </c>
       <c r="G20" t="n">
-        <v>-151.3438661611827</v>
+        <v>-120.8389599413089</v>
       </c>
     </row>
     <row r="21">
@@ -953,16 +953,16 @@
         <v>1.5</v>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E21" t="n">
-        <v>368.4726527974635</v>
+        <v>311.5360800228572</v>
       </c>
       <c r="F21" t="n">
-        <v>-507.8117465536228</v>
+        <v>-436.8648186056144</v>
       </c>
       <c r="G21" t="n">
-        <v>-139.3390937561593</v>
+        <v>-125.3287385827572</v>
       </c>
     </row>
     <row r="22">
@@ -981,13 +981,13 @@
         <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>387.8746823209962</v>
+        <v>329.6894118665471</v>
       </c>
       <c r="F22" t="n">
-        <v>-530.0614359820197</v>
+        <v>-458.6900893201229</v>
       </c>
       <c r="G22" t="n">
-        <v>-142.1867536610235</v>
+        <v>-129.0006774535758</v>
       </c>
     </row>
     <row r="23">
@@ -996,23 +996,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>jog</t>
+          <t>OFF</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>398.0503109676325</v>
+        <v>322.4437856214789</v>
       </c>
       <c r="F23" t="n">
-        <v>-533.2761758570691</v>
+        <v>-429.1077825237517</v>
       </c>
       <c r="G23" t="n">
-        <v>-135.2258648894366</v>
+        <v>-106.6639969022727</v>
       </c>
     </row>
     <row r="24">
@@ -1025,19 +1025,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D24" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E24" t="n">
-        <v>403.6023085259525</v>
+        <v>343.4073974283276</v>
       </c>
       <c r="F24" t="n">
-        <v>-527.4835874652375</v>
+        <v>-457.5333278823981</v>
       </c>
       <c r="G24" t="n">
-        <v>-123.881278939285</v>
+        <v>-114.1259304540705</v>
       </c>
     </row>
     <row r="25">
@@ -1053,16 +1053,16 @@
         <v>1.5</v>
       </c>
       <c r="D25" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E25" t="n">
-        <v>414.532289125968</v>
+        <v>363.9102892653137</v>
       </c>
       <c r="F25" t="n">
-        <v>-533.064580563266</v>
+        <v>-484.1256241187448</v>
       </c>
       <c r="G25" t="n">
-        <v>-118.5322914372979</v>
+        <v>-120.2153348534311</v>
       </c>
     </row>
     <row r="26">
@@ -1081,13 +1081,13 @@
         <v>12</v>
       </c>
       <c r="E26" t="n">
-        <v>451.6220601485962</v>
+        <v>397.912586433964</v>
       </c>
       <c r="F26" t="n">
-        <v>-591.0856385898849</v>
+        <v>-536.9029029958772</v>
       </c>
       <c r="G26" t="n">
-        <v>-139.4635784412887</v>
+        <v>-138.9903165619132</v>
       </c>
     </row>
     <row r="27">
@@ -1096,23 +1096,23 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>jog</t>
+          <t>OFF</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>454.896704543943</v>
+        <v>389.1676107819223</v>
       </c>
       <c r="F27" t="n">
-        <v>-579.3647436527116</v>
+        <v>-502.2764160363962</v>
       </c>
       <c r="G27" t="n">
-        <v>-124.4680391087686</v>
+        <v>-113.1088052544739</v>
       </c>
     </row>
     <row r="28">
@@ -1128,16 +1128,16 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E28" t="n">
-        <v>452.5993816618458</v>
+        <v>401.5148245749047</v>
       </c>
       <c r="F28" t="n">
-        <v>-557.3997645681643</v>
+        <v>-511.6830956186955</v>
       </c>
       <c r="G28" t="n">
-        <v>-104.8003829063185</v>
+        <v>-110.1682710437909</v>
       </c>
     </row>
     <row r="29">
@@ -1146,23 +1146,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1000m_interval×5</t>
+          <t>2000m_interval×5</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>470.1525473376724</v>
+        <v>437.6906820758987</v>
       </c>
       <c r="F29" t="n">
-        <v>-576.451373208497</v>
+        <v>-568.6831100738908</v>
       </c>
       <c r="G29" t="n">
-        <v>-106.2988258708245</v>
+        <v>-130.9924279979921</v>
       </c>
     </row>
     <row r="30">
@@ -1171,23 +1171,23 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>jog</t>
+          <t>OFF</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>477.4199448531426</v>
+        <v>428.0714981436145</v>
       </c>
       <c r="F30" t="n">
-        <v>-574.4742861676169</v>
+        <v>-532.0070217436293</v>
       </c>
       <c r="G30" t="n">
-        <v>-97.05434131447436</v>
+        <v>-103.9355236000147</v>
       </c>
     </row>
     <row r="31">
@@ -1203,16 +1203,16 @@
         <v>1.5</v>
       </c>
       <c r="D31" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E31" t="n">
-        <v>476.82762584671</v>
+        <v>433.5137162432042</v>
       </c>
       <c r="F31" t="n">
-        <v>-557.2247074308581</v>
+        <v>-527.396284927033</v>
       </c>
       <c r="G31" t="n">
-        <v>-80.39708158414805</v>
+        <v>-93.88256868382877</v>
       </c>
     </row>
     <row r="32">
@@ -1225,19 +1225,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D32" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E32" t="n">
-        <v>482.8483243106117</v>
+        <v>435.5363300216526</v>
       </c>
       <c r="F32" t="n">
-        <v>-554.2876060337674</v>
+        <v>-516.4829084289646</v>
       </c>
       <c r="G32" t="n">
-        <v>-71.43928172315566</v>
+        <v>-80.94657840731196</v>
       </c>
     </row>
   </sheetData>
